--- a/data/11pell.xlsx
+++ b/data/11pell.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="in_state" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>2008-09</t>
   </si>
@@ -61,15 +61,6 @@
     <t>2018-19</t>
   </si>
   <si>
-    <t>Total Pell Grant Recipients</t>
-  </si>
-  <si>
-    <t>Total Pell Grant Dollars Awarded</t>
-  </si>
-  <si>
-    <t>Total Undergraduate Enrollment</t>
-  </si>
-  <si>
     <t>2006-07</t>
   </si>
   <si>
@@ -94,13 +85,25 @@
     <t>% of Total COA Covered by Max Pell Award*</t>
   </si>
   <si>
-    <t>% Undergraduates with Federal Pell Grant Awards</t>
-  </si>
-  <si>
     <t>% of Tuition/Fees Covered by Max Pell Award</t>
   </si>
   <si>
     <t>% of Total COA Covered by Max Pell Award</t>
+  </si>
+  <si>
+    <t>1. Max Pell Award</t>
+  </si>
+  <si>
+    <t>2. Total Pell Grant Recipients</t>
+  </si>
+  <si>
+    <t>3. Total Pell Grant Dollars Awarded</t>
+  </si>
+  <si>
+    <t>4. Total Undergraduate Enrollment</t>
+  </si>
+  <si>
+    <t>5. % Undergraduates with  Pell Grant Awards</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -473,10 +476,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>5350</v>
@@ -511,7 +514,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>4910</v>
@@ -549,7 +552,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>82.484725050916495</v>
@@ -587,7 +590,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>14758</v>
@@ -625,7 +628,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>27.442742919094727</v>
@@ -670,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -685,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -723,7 +726,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>4050</v>
@@ -761,7 +764,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>17802</v>
@@ -799,7 +802,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>22.75025278058645</v>
@@ -837,7 +840,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>27650</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>14.647377938517177</v>
@@ -920,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -934,7 +937,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -972,7 +975,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>4731</v>
@@ -1010,7 +1013,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>3945</v>
@@ -1048,7 +1051,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>12806166</v>
@@ -1086,7 +1089,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>25467</v>
@@ -1124,40 +1127,40 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>0.15490634939333256</v>
+        <v>15.490634939333257</v>
       </c>
       <c r="C6">
-        <v>0.24929232652436692</v>
+        <v>24.929232652436692</v>
       </c>
       <c r="D6">
-        <v>0.25555940956565304</v>
+        <v>25.555940956565305</v>
       </c>
       <c r="E6">
-        <v>0.26849429340613507</v>
+        <v>26.849429340613508</v>
       </c>
       <c r="F6">
-        <v>0.25705472409459612</v>
+        <v>25.705472409459613</v>
       </c>
       <c r="G6">
-        <v>0.25995129005251544</v>
+        <v>25.995129005251545</v>
       </c>
       <c r="H6">
-        <v>0.2506137936165464</v>
+        <v>25.061379361654641</v>
       </c>
       <c r="I6">
-        <v>0.2415871056739391</v>
+        <v>24.158710567393911</v>
       </c>
       <c r="J6">
-        <v>0.23501001717229536</v>
+        <v>23.501001717229535</v>
       </c>
       <c r="K6">
-        <v>0.23571824736550195</v>
+        <v>23.571824736550195</v>
       </c>
       <c r="L6">
-        <v>0.22538921346796797</v>
+        <v>22.538921346796798</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1172,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B43D2C-B3D7-46DD-BFC6-B925263A80D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D182E96-C02D-4852-B1B1-3D2A360ADBE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>
